--- a/Data/R6_Legacy_compare.xlsx
+++ b/Data/R6_Legacy_compare.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mneely/LAPK/Development/PM_manual/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A0FA29-9600-5B43-89F9-B9C828700247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7891B9-D2AF-3545-A079-86F4B8973676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{97DF5138-9A4B-EF42-87DD-B7FE98165DEC}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{97DF5138-9A4B-EF42-87DD-B7FE98165DEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="R6_Legacy_compare" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="RLcomp_data" sheetId="1" r:id="rId1"/>
+    <sheet name="RLcomp_valid" sheetId="2" r:id="rId2"/>
+    <sheet name="RLcomp_other" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>R6</t>
   </si>
@@ -51,27 +51,18 @@
     <t>Read data file</t>
   </si>
   <si>
-    <t>PM_data$new()</t>
-  </si>
-  <si>
     <t>PMreadMatrix()</t>
   </si>
   <si>
     <t>Check data file</t>
   </si>
   <si>
-    <t>Embedded in PM_data$new()</t>
-  </si>
-  <si>
     <t>PMcheck()</t>
   </si>
   <si>
     <t>Write data file</t>
   </si>
   <si>
-    <t>PM_data$write()</t>
-  </si>
-  <si>
     <t>PMwriteMatrix()</t>
   </si>
   <si>
@@ -117,9 +108,6 @@
     <t>plot(op, resid = T)</t>
   </si>
   <si>
-    <t>PM_result$make_valid()</t>
-  </si>
-  <si>
     <t>makeValid()</t>
   </si>
   <si>
@@ -150,7 +138,37 @@
     <t>makeAUC()</t>
   </si>
   <si>
-    <t>$auc() method for PM_result$op/$post/$pop, or PM_sim</t>
+    <t>makePTA()</t>
+  </si>
+  <si>
+    <t>Simulate</t>
+  </si>
+  <si>
+    <t>SIMrun()</t>
+  </si>
+  <si>
+    <t>Probability of target attainment</t>
+  </si>
+  <si>
+    <t>PM_data\$new()</t>
+  </si>
+  <si>
+    <t>Embedded in PM_data\$new()</t>
+  </si>
+  <si>
+    <t>PM_data\$write()</t>
+  </si>
+  <si>
+    <t>PM_result\$valid() or PM_valid\$new()</t>
+  </si>
+  <si>
+    <t>\$auc() method for PM_result\$op/\$post/\$pop, or PM_sim</t>
+  </si>
+  <si>
+    <t>PM_result\$sim() or PM_sim\$new()</t>
+  </si>
+  <si>
+    <t>PM_sim\$pta() or PM_pta\$new()</t>
   </si>
 </sst>
 </file>
@@ -505,7 +523,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,76 +549,76 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -613,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B88CE50-9D6D-094B-B3D8-3F0DBE827F74}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,57 +655,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +716,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D57E147-B204-5940-90C2-DBB800DBC40D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,16 +742,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>